--- a/Assets/Excel/ExcelFiles/ModuleTestExcel.xlsx
+++ b/Assets/Excel/ExcelFiles/ModuleTestExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\2025풀씨게임잼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\EmergencyRoulette\Assets\Excel\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0823260D-C483-4D9A-87CB-AEA1EA8D9605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9585CB2-49DF-4E12-B62C-1B351CE757B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{E2448FD4-AB46-4961-B8F3-15BC83157170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>moduleName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,78 @@
   <si>
     <t>재난</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 탐색기 모듈</t>
+  </si>
+  <si>
+    <t>데이터 등장 확률 20% 증가</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>데이터</t>
+  </si>
+  <si>
+    <t>긴급 의료 키트</t>
+  </si>
+  <si>
+    <t>의료 등장 시 자원 3 추가 획득</t>
+  </si>
+  <si>
+    <t>BonusOnResult</t>
+  </si>
+  <si>
+    <t>의료</t>
+  </si>
+  <si>
+    <t>정전 차단기 모듈</t>
+  </si>
+  <si>
+    <t>과부하가 등장해도 효과를 무시함</t>
+  </si>
+  <si>
+    <t>IgnoreResult</t>
+  </si>
+  <si>
+    <t>과부하</t>
+  </si>
+  <si>
+    <t>예측 시스템 모듈</t>
+  </si>
+  <si>
+    <t>경고 확률을 미리 확인할 수 있음 (UI용)</t>
+  </si>
+  <si>
+    <t>PredictProbability</t>
+  </si>
+  <si>
+    <t>경고</t>
+  </si>
+  <si>
+    <t>재난 예측 센서</t>
+  </si>
+  <si>
+    <t>재난 등장 확률 5% 감소</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>DecreaseChance</t>
+  </si>
+  <si>
+    <t>재난</t>
+  </si>
+  <si>
+    <t>식량 추적기</t>
+  </si>
+  <si>
+    <t>식량 등장 확률 15% 증가</t>
+  </si>
+  <si>
+    <t>식량</t>
   </si>
 </sst>
 </file>
@@ -525,7 +597,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -630,37 +702,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excel/ExcelFiles/ModuleTestExcel.xlsx
+++ b/Assets/Excel/ExcelFiles/ModuleTestExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\EmergencyRoulette\Assets\Excel\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9585CB2-49DF-4E12-B62C-1B351CE757B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75910623-284C-4FB5-BEC5-223C3FE0FA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{E2448FD4-AB46-4961-B8F3-15BC83157170}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{E2448FD4-AB46-4961-B8F3-15BC83157170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>moduleName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>식량 등장 시 추가 자원 5 지급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Row</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -597,10 +593,17 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -670,13 +673,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -684,19 +687,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -704,19 +707,19 @@
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <v>0.2</v>
@@ -724,19 +727,19 @@
     </row>
     <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="1">
         <v>3</v>
@@ -744,19 +747,19 @@
     </row>
     <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -764,19 +767,19 @@
     </row>
     <row r="9" spans="1:6" ht="85" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -784,19 +787,19 @@
     </row>
     <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F10" s="1">
         <v>0.05</v>
@@ -804,10 +807,10 @@
     </row>
     <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -816,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1">
         <v>0.15</v>
